--- a/docs/sprint 1/Resultaods Criterios de Aceptacion.xlsx
+++ b/docs/sprint 1/Resultaods Criterios de Aceptacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\La_U\Ing SW II\Proyecto Final\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caro\Documents\NetBeansProjects\xtremescrump\docs\sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Acceptance Criteria" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>√</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Crear proyecto</t>
   </si>
   <si>
-    <t>Agregar al team scrum al proyecto</t>
-  </si>
-  <si>
     <t>Se prensentará una panatalla para la creación del proyecto, nombre y fecha de incio</t>
   </si>
   <si>
-    <t>Se prensentará una panatalla para agregar los mails de los miembros del equipo</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -90,13 +84,40 @@
   </si>
   <si>
     <t>Se presentara un Error sino se ingresa todos los datos</t>
+  </si>
+  <si>
+    <t>Crear una tabla que muestre los proyectos</t>
+  </si>
+  <si>
+    <t>Desplegar un diálogo  para la creación de nuevos proyectos</t>
+  </si>
+  <si>
+    <t>Aparecerá un botón 'Nuevo Proyecto', que permitirá crear nuevos proyectos.</t>
+  </si>
+  <si>
+    <t>Se presentará una tabla con los proyectos creados - nombre, descripción, fecha inicio, fecha fin</t>
+  </si>
+  <si>
+    <t>Si no existen proyectos creados, se presentará un mensaje en la tabla que diga: 'No existen registros'</t>
+  </si>
+  <si>
+    <t>Cada registro tendrá botones de edición y eliminación, en la última columna de la tabla llamada 'Opciones'</t>
+  </si>
+  <si>
+    <t>Al hacer clic en el botón 'Nuevo Proyecto' se desplegará un diálogo con el formato de historia de usuario.</t>
+  </si>
+  <si>
+    <t>En el diálogo se mostrará campos de: Nombre, Descripción, Fecha Inicio, Fecha Fin.</t>
+  </si>
+  <si>
+    <t>El diálogo tendrá botones de guadar y cancelar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,12 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -179,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -317,6 +332,24 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -327,7 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,74 +371,102 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -691,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,53 +765,53 @@
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -759,267 +820,322 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="I7" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
+    <row r="26" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
+  <mergeCells count="30">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A22:D23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A17:H18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="E11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A11:D13"/>
-    <mergeCell ref="A8:D10"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A10:D12"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
